--- a/BOM-V3.xlsx
+++ b/BOM-V3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="258">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -587,16 +587,19 @@
     <t xml:space="preserve">0.027 µF ±10% 100V Condensator ceramic X7R 1206 (3216 metric)</t>
   </si>
   <si>
+    <t xml:space="preserve">RB068LAM150TFTR</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIODE SCHOTTKY 150V 2A SOD123FL</t>
   </si>
   <si>
-    <t xml:space="preserve">BAT165E63227HTSAI</t>
+    <t xml:space="preserve">ZLLS500QTA</t>
   </si>
   <si>
     <t xml:space="preserve">DIODE SCHOTT 40V 750MA SOD323-2</t>
   </si>
   <si>
-    <t xml:space="preserve">Schottky Diodes &amp; Rectifiers PMEG3005ELD/SOD882D/XSON2</t>
+    <t xml:space="preserve">Schottky Diodes &amp; Rectifiers PMEG3005ELD/SOD882D/XSON2 ( Strom aund Spannung )</t>
   </si>
   <si>
     <t xml:space="preserve">Dioden - Zener 5.1 V 300 mW ±2% Oberflächenmontage SOD-323</t>
@@ -801,7 +804,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,12 +838,18 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Cabin"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -863,6 +872,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFB66C"/>
         <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -907,7 +922,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -936,11 +951,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -948,20 +963,24 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -972,20 +991,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1052,7 +1059,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -2585,17 +2592,17 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="114.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="114.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,7 +2644,7 @@
       <c r="D3" s="1" t="n">
         <v>0.29</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2654,24 +2661,24 @@
       <c r="D4" s="1" t="n">
         <v>0.26</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.09</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="3" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2688,7 +2695,7 @@
       <c r="D6" s="1" t="n">
         <v>4.02</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="3" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2705,7 +2712,7 @@
       <c r="D7" s="1" t="n">
         <v>0.64</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="3" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2722,7 +2729,7 @@
       <c r="D8" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="3" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2739,7 +2746,7 @@
       <c r="D9" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="3" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2756,7 +2763,7 @@
       <c r="D10" s="1" t="n">
         <v>1.33</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="3" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2773,7 +2780,7 @@
       <c r="D11" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="3" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2787,10 +2794,10 @@
       <c r="C12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>0.12</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="3" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2804,10 +2811,10 @@
       <c r="C13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>0.22</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="3" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2821,10 +2828,10 @@
       <c r="C14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>3.49</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="3" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2838,10 +2845,10 @@
       <c r="C15" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>0.21</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2855,10 +2862,10 @@
       <c r="C16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>0.21</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2872,10 +2879,10 @@
       <c r="C17" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>0.19</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="3" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2889,10 +2896,10 @@
       <c r="C18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>1.88</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="3" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2906,10 +2913,10 @@
       <c r="C19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>0.51</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="3" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2923,10 +2930,10 @@
       <c r="C20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>0.18</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="3" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2934,34 +2941,34 @@
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>46</v>
+      <c r="B21" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>0.41</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>188</v>
+      <c r="E21" s="12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>189</v>
+      <c r="B22" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>0.32</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>190</v>
+      <c r="E22" s="12" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,11 +2981,11 @@
       <c r="C23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>0.21</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>191</v>
+      <c r="E23" s="14" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,11 +2998,11 @@
       <c r="C24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>192</v>
+      <c r="E24" s="12" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,16 +3010,16 @@
         <v>53</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>1.57</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>194</v>
+      <c r="E25" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3025,16 +3032,16 @@
       <c r="C26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>4.84</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>195</v>
+      <c r="E26" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B27" s="9" t="n">
         <v>7461098</v>
@@ -3042,11 +3049,11 @@
       <c r="C27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>3.85</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>197</v>
+      <c r="E27" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,46 +3061,46 @@
         <v>61</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>1.61</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>199</v>
+      <c r="E28" s="10" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="C29" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="15" t="n">
+      <c r="B30" s="16" t="n">
         <v>7447709470</v>
       </c>
-      <c r="C30" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="16" t="n">
+      <c r="C30" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="n">
         <v>2.38</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>200</v>
+      <c r="E30" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,11 +3113,11 @@
       <c r="C31" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>1.27</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>201</v>
+      <c r="E31" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3123,11 +3130,11 @@
       <c r="C32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>202</v>
+      <c r="E32" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,11 +3147,11 @@
       <c r="C33" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>5.15</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>203</v>
+      <c r="E33" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,11 +3164,11 @@
       <c r="C34" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>4.08</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>204</v>
+      <c r="E34" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3174,45 +3181,45 @@
       <c r="C35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>5.51</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>205</v>
+      <c r="E35" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="12" t="n">
+      <c r="C36" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D36" s="17" t="n">
+      <c r="D36" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>206</v>
+      <c r="E36" s="17" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>0.87</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>207</v>
+      <c r="E37" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,11 +3232,11 @@
       <c r="C38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>208</v>
+      <c r="E38" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3242,11 +3249,11 @@
       <c r="C39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>209</v>
+      <c r="E39" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,11 +3266,11 @@
       <c r="C40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>210</v>
+      <c r="E40" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,11 +3283,11 @@
       <c r="C41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>0.13</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>211</v>
+      <c r="E41" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,11 +3300,11 @@
       <c r="C42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>212</v>
+      <c r="E42" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,11 +3317,11 @@
       <c r="C43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>0.11</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>213</v>
+      <c r="E43" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3327,11 +3334,11 @@
       <c r="C44" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>214</v>
+      <c r="E44" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,79 +3351,79 @@
       <c r="C45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>215</v>
+      <c r="E45" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="17" t="n">
+      <c r="C46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E46" s="17" t="s">
-        <v>216</v>
+      <c r="E46" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="12" t="n">
+      <c r="C47" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D47" s="17" t="n">
+      <c r="D47" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="E47" s="17" t="s">
-        <v>217</v>
+      <c r="E47" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="14" t="n">
+      <c r="C48" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D48" s="16" t="n">
+      <c r="D48" s="4" t="n">
         <v>12.21</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>218</v>
+      <c r="E48" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>219</v>
+      <c r="B49" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>220</v>
+      <c r="E49" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,11 +3436,11 @@
       <c r="C50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>221</v>
+      <c r="E50" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,11 +3453,11 @@
       <c r="C51" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>222</v>
+      <c r="E51" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,11 +3470,11 @@
       <c r="C52" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="1" t="n">
         <v>0.57</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>223</v>
+      <c r="E52" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,11 +3487,11 @@
       <c r="C53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>209</v>
+      <c r="E53" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,11 +3504,11 @@
       <c r="C54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="1" t="n">
         <v>0.21</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>224</v>
+      <c r="E54" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3514,11 +3521,11 @@
       <c r="C55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>225</v>
+      <c r="E55" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,16 +3538,16 @@
       <c r="C56" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>226</v>
+      <c r="E56" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>121</v>
@@ -3548,16 +3555,16 @@
       <c r="C57" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>228</v>
+      <c r="E57" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>123</v>
@@ -3565,11 +3572,11 @@
       <c r="C58" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58" s="1" t="n">
         <v>0.16</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>230</v>
+      <c r="E58" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3582,11 +3589,11 @@
       <c r="C59" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>231</v>
+      <c r="E59" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3599,11 +3606,11 @@
       <c r="C60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>232</v>
+      <c r="E60" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3611,33 +3618,33 @@
         <v>128</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>234</v>
+      <c r="E61" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C62" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" s="17" t="n">
+      <c r="B62" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="n">
         <v>0.112</v>
       </c>
-      <c r="E62" s="17" t="s">
-        <v>236</v>
+      <c r="E62" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,16 +3652,16 @@
         <v>132</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>238</v>
+      <c r="E63" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,58 +3674,58 @@
       <c r="C64" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="1" t="n">
         <v>1.67</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>239</v>
+      <c r="E64" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="1" t="n">
         <v>0.33</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F65" s="16"/>
+      <c r="E65" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B66" s="15" t="s">
+      <c r="A66" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C66" s="14" t="n">
+      <c r="B66" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C67" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16" t="s">
-        <v>245</v>
+      <c r="C67" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3731,11 +3738,11 @@
       <c r="C68" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68" s="1" t="n">
         <v>0.64</v>
       </c>
-      <c r="E68" s="10" t="s">
-        <v>246</v>
+      <c r="E68" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,16 +3750,16 @@
         <v>155</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69" s="1" t="n">
         <v>1.34</v>
       </c>
-      <c r="E69" s="10" t="s">
-        <v>248</v>
+      <c r="E69" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3760,19 +3767,19 @@
         <v>157</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70" s="1" t="n">
         <v>6.54</v>
       </c>
-      <c r="E70" s="11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>159</v>
       </c>
@@ -3782,30 +3789,30 @@
       <c r="C71" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71" s="1" t="n">
         <v>0.29</v>
       </c>
-      <c r="E71" s="10" t="s">
-        <v>251</v>
+      <c r="E71" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B72" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="B72" s="10" t="s">
         <v>254</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B73" s="19" t="s">
         <v>256</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>1</v>
